--- a/backtest_results.xlsx
+++ b/backtest_results.xlsx
@@ -618,7 +618,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fvGGUZ6ZiCB4aSF8T6fmHW</t>
+          <t>YfnG6HJrzSoxh6dp7fRNPC</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -729,7 +729,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NLkTQFkzXizRXQnobw3qQ4</t>
+          <t>joXuYAHynYycG6kjikUQTS</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -840,7 +840,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UTut8VE92Wbb4zwbYy8XMc</t>
+          <t>HFsPm4Y84ckG6HbCug7KL3</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -951,7 +951,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>47URPQsfKKdgoEFPQndXDn</t>
+          <t>FFy7zpNWhXxUdQqifHYJwZ</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -1062,7 +1062,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>d5jaDk8bb4QNG6jZcNYmcM</t>
+          <t>RKjvyL6d63mw323xB3QQG7</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1173,7 +1173,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>YCqvY2mj5gAFwdadKdMbqe</t>
+          <t>d32xqayBT37WQKBYCEVPKL</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1284,7 +1284,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2cTkgB6LhpJVN2womEzMfz</t>
+          <t>BGyeUnqGtipXbXXzTkFeyT</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1395,7 +1395,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LaQPESTUApYHYbKCnE9a4L</t>
+          <t>3R38g5WVnhMbN9z5VcBFZQ</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1506,7 +1506,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>gJUZ7TKweV9wTN5ZBb2gZy</t>
+          <t>ZjBCL4W4JPoUan43CGmA74</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1617,7 +1617,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Huif2XvvR2DpRdk5NpybGN</t>
+          <t>PbPVd3xPKpj7uJTTMTVQSP</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1728,7 +1728,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>T9dE93ESqmbRX9mRU4MKxE</t>
+          <t>Wpin2c9e2ZrppoeTqUGr4L</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1839,7 +1839,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4hyUk7aPDtzDB5vMqWBiBb</t>
+          <t>VpsyP6rvbzWVQwWmjHULyv</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -1950,7 +1950,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UXovWKdejsDjuvmCntrf23</t>
+          <t>LTS454vmG3Wmha7jrstx9b</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2061,7 +2061,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PQxm9FGfWS57UyTZ7F8Vqj</t>
+          <t>RFRrVXgDu3yoAT3ZXSnP42</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -2172,7 +2172,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>T9yn6GFDxStvx6ha5bMsM3</t>
+          <t>7oYTK6ScTira5Yqmc2y9vL</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2283,7 +2283,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6kPQaBhSGdwMBNaiv9rJy6</t>
+          <t>nR4hRnx6vX4XsmRHv3qAgy</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2394,7 +2394,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fbx5qNcCN4UoPLdbBgWNQa</t>
+          <t>mE3dZC9GSejieYQtGpEbTZ</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2505,7 +2505,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ZaKSDFaBL54j68gpmQBhXH</t>
+          <t>Q3LXeMd8iXvHrx8CTYPUyg</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -2616,7 +2616,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>fLBRmrRGsuhGe2pajH9J4U</t>
+          <t>ZqSvr5Cf44XQ56vot8x25v</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -2727,7 +2727,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>JY5KbYWDTT2Ja7TUZ8tEUX</t>
+          <t>8paW53yZvHxfQujzQA2gTH</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -2838,7 +2838,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HCxF2kuDAsRHtUo9diLf4V</t>
+          <t>AnYTZrSSzBLu3YuCJpwKyo</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -2949,7 +2949,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>cDks5SazCkHYKCqC4E3ukX</t>
+          <t>Ua3bYSzkXiYYzaNBugu6Bj</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -3060,7 +3060,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>cw9F3WhWkpucajJ4PNW89f</t>
+          <t>Vko4VYKJWpu8nNKZTJFPYK</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -3171,7 +3171,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>dJwtHRFLsDAxyUe9onNYjp</t>
+          <t>UK6pzGJdqbYUzmMroievok</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -3282,7 +3282,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7H79umeEyPipjcMwu96VXe</t>
+          <t>4tsAWVsihz7gprzzJYrrbN</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -3393,7 +3393,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>WDrCSRX7cpJjitzY8uEzsN</t>
+          <t>bcLs6Mi4KFUu3kugqtwt32</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -3504,7 +3504,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>fTC4kFtrDSwR8MFhanAEmo</t>
+          <t>hu59yQomsVVwj6zx5JLisB</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -3615,7 +3615,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>oJLXbK9DjWz8rMGDFTV9Lk</t>
+          <t>Mez7oKBnHsPuMhVHmS9gTy</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -3726,7 +3726,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>cxty3JHLrNrhEEciLx4hQC</t>
+          <t>ifBmCMcwdweeFM7cNcckRZ</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
@@ -3837,7 +3837,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>34fbEdT5dZJoF3kwUgFQaZ</t>
+          <t>nK2sLLxqzwxod7dFynMKq7</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -3948,7 +3948,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7AMHyjmJVBSQJ4Jf6TAMD9</t>
+          <t>DhKW7cnRWJVbPEvyEoDgL7</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
@@ -4059,7 +4059,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>T37rbGrYdLJjxLF8fLJRVS</t>
+          <t>Em3hpLtgMhVGxBU7PDUqpT</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -4170,7 +4170,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>cFtRXpWc5emgKLBPJyAgxQ</t>
+          <t>Gp9kYbExjfBm6JMu6azxap</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -4281,7 +4281,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MSmQDm2WEAxtkf6QqtdV5k</t>
+          <t>jRoURQKtCvH2Kj2QZEGwSn</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -4392,7 +4392,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>R3wzRa7R95mxrDscprQNea</t>
+          <t>TmoRRgPLTgEQUnwo3SLqfq</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
@@ -4503,7 +4503,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>P6dNCUhDD9SyBQfxPBAitr</t>
+          <t>Yyw9VXusVwwuDNGPN22nqX</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
@@ -4614,7 +4614,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PTwvnZpfPcJx7LZRUdbPMt</t>
+          <t>6sYtTgm7fuCaH5ighLvtYJ</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
@@ -4725,7 +4725,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9BbMkALwG5F2xRR8nKndJi</t>
+          <t>9DkscY6xMv4D2cpnBBBRSf</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
@@ -4836,7 +4836,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>JTMqoECjZg5H27cZ9CfcGf</t>
+          <t>bv4ETy2hVAek5xESTtT4r5</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
@@ -4947,7 +4947,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DvpxXp8ad7pwk8C9y5mEcP</t>
+          <t>aragrPgiVTUz4ZVEgXVVpx</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
@@ -5058,7 +5058,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Yo9ZyeaaLadAMtADQDjAGX</t>
+          <t>McF8sTQJBKh9ymogepQQG7</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -5169,7 +5169,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>8vWh5sxmiWTNKyr68aLUJD</t>
+          <t>cKXJDLKpLP4sm5FH2v6N8d</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
@@ -5280,7 +5280,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3wxeEETeY8uUoZeSY3baBk</t>
+          <t>XkRwEtYVemp5mChPu8AREB</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
@@ -5391,7 +5391,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2JP99gwGowBeqAf6AeaaUy</t>
+          <t>hTTxibhEAdAWMc4boQXL6H</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
@@ -5502,7 +5502,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HE4cAmrAsTaUhyrsY3B2PS</t>
+          <t>bcCb3v7ZKZa9vM77GTiDa9</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
@@ -5613,7 +5613,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AuN9neVx4F2CrtwSxLVt5p</t>
+          <t>Uo3Gss5NHZUYhrY8Fe6QaC</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
@@ -5724,7 +5724,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>GUM4E4cgmfwFvVAJEnSRsZ</t>
+          <t>QBYovZNUYdyaXzwgk5vveE</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
@@ -5835,7 +5835,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>WfoPv4mhcaw7RWQi9ALnbj</t>
+          <t>nQVgj62hBGMT9BwMDLZocs</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
@@ -5946,7 +5946,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CUGrN3D3UsMV3PZsie3rMj</t>
+          <t>eLC4BFhJKbrik3uBrgr3gB</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
@@ -6057,7 +6057,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>7474hqDXmBs9Cr5hZew3F9</t>
+          <t>fKsPghn6kaHeb4E9sNwZQx</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
@@ -6168,7 +6168,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>gt6aqx9szXPre2NbbjtJNj</t>
+          <t>o3QK3guD2K7y27cTkMcYoS</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
@@ -6279,7 +6279,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>mtN3Gjj4MmstEYiJtQv7Gr</t>
+          <t>DDnjps64cf5CJK6WqBtAU5</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
@@ -6390,7 +6390,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>9o7r22L3thproCyscbUy4v</t>
+          <t>naMnhNhzF7oeW2FurwL9Be</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
@@ -6501,7 +6501,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>cbuqq995xJZeGNXTa8pSx4</t>
+          <t>3u7TGgrFr7RND2ugJaKYkz</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
@@ -6612,7 +6612,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ACdkQcHvsRsgtscKKjkX43</t>
+          <t>92H5W6KkwCkrkBFGiSFXJa</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
@@ -6723,7 +6723,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4xYcVCbVWdGUnnC2icBgqQ</t>
+          <t>MLPNGqZxorM4TG4r8dCHZN</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
@@ -6834,7 +6834,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RhYqfi2PXUkWx99pgGcu4q</t>
+          <t>KdPSNWJ65QSu8q8J48jZ86</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
@@ -6945,7 +6945,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2ZFruC9sfhC8NrmVoLyqi2</t>
+          <t>HUXnjriaReJoWts6UkSQg3</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
@@ -7056,7 +7056,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4GcMZkVPEG8z5ECj6aL3B2</t>
+          <t>hCFTqRugrBUyzi9LLgwwSy</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
@@ -7167,7 +7167,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ifH5ppGzr4aTUcYMbYhALq</t>
+          <t>ki9UbDdmPRpQVbrQ8HrM4Z</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
@@ -7278,7 +7278,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>dhUCdHJjEQxGt9ofqbT4kt</t>
+          <t>azdq2PVNwkYDab4eaiDXWz</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
@@ -7389,7 +7389,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>kBpE6iZQ5DZ6fjz39bPhwB</t>
+          <t>afMiMpztGLQA3nzxytL7va</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
@@ -7500,7 +7500,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>nATFD8PdX4j6qg2q5vtzGJ</t>
+          <t>7KXmDJvkGinKTtRMnkQqqB</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
@@ -7611,7 +7611,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>iMaSGfLQ2n4vP78uHpb8cB</t>
+          <t>Z4wr4FvWwZxqd3RG7tSd4L</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
@@ -7722,7 +7722,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>eVaB7ZvCBynH3LXZHXTXW2</t>
+          <t>bKiWiZRkYdSYMDGwKFugSV</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
@@ -7833,7 +7833,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Pde7L9KHrnWCTBLKUgHtXs</t>
+          <t>LovvV3kSNhWK3aK9joJCnj</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
@@ -7944,7 +7944,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>G64JFV22GPepES2BphK34H</t>
+          <t>J2MyRBaudwKXiRiRYLm8cq</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
@@ -8055,7 +8055,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>WBoV8kLcUorzwrrzryKwQm</t>
+          <t>eT4eiZcM4mfuAHt3emjAEG</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
@@ -8166,7 +8166,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>hKAe6M8df6unDpbALKB5u3</t>
+          <t>CoRMTgZKtYaYW9XaF7htV6</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
@@ -8277,7 +8277,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>oSJTeDxWQozLAxufF4w9LV</t>
+          <t>hQTzatbKhihd3APyaZcxwa</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
@@ -8388,7 +8388,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DSFXgHRV4FB4dV2buRAhy5</t>
+          <t>DKYYiiTtdB8PWNU4d8Z3dj</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
@@ -8499,7 +8499,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>T4vpYEoQHSZZkAwH4BzAom</t>
+          <t>YiufuHZG9DKL5w66ady34m</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
@@ -8610,7 +8610,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>UvgwF3NueYSwd9kMo2Gguj</t>
+          <t>LWrrnZm6VhU2B6Sd9tDU8b</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
@@ -8721,7 +8721,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>kKQg4UsXANiuutVouAGU8M</t>
+          <t>NKTCNhpEAJoNr7igrMPik3</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
@@ -8832,7 +8832,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SN8PEBrAkb3n9SCi9NmyPP</t>
+          <t>LNbGua7WsycrtJScyKe8Gv</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
@@ -8943,7 +8943,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>LSK5hkeUevwV3eTv9DFXGR</t>
+          <t>8LphVcjKVjrCQYGpsfGdBV</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
@@ -9054,7 +9054,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ZFMrkK5j8iGEpiibhExq2M</t>
+          <t>akkm75MPJXJNihGzhasuNr</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
@@ -9165,7 +9165,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ih8NUbXP6m4oEwmyjuf4Ne</t>
+          <t>bz67iBSyxkrDSYHwX9jYPp</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
@@ -9276,7 +9276,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>B9QkNDxo9Bgs7D3MgARqhK</t>
+          <t>N9myFWmHniLvRw6sXMkQMh</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
@@ -9387,7 +9387,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3njydWjWm6ejiiwcwfQyMA</t>
+          <t>J5ewnxLiz7rvofg7YiujHE</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
@@ -9498,7 +9498,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>aJEKr5i3DMp6RDuzKmpUjr</t>
+          <t>gBoSJgpVXhv7FhH4U8fUe2</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
@@ -9609,7 +9609,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DwJcZDRF6RL4Ggj6rFZwg2</t>
+          <t>WqCiniHTnDkQmGQ7GEVPPL</t>
         </is>
       </c>
       <c r="B83" s="2" t="n">
@@ -9720,7 +9720,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>S6Nt3x5JaUjtkeq4nhJoLs</t>
+          <t>c4a5yNCPN2W6KK3wjPgXUY</t>
         </is>
       </c>
       <c r="B84" s="2" t="n">
@@ -9831,7 +9831,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ghcGm8rtp3qkgJCvAXM7mG</t>
+          <t>kz6MHgqgaAuk74jHK8CPHZ</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
@@ -9942,7 +9942,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>W5uywEPddpc2JfcnTAMFYC</t>
+          <t>AAG5burWz7ccQ2mFS2KHeB</t>
         </is>
       </c>
       <c r="B86" s="2" t="n">
@@ -10053,7 +10053,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>THSJuq82MDfk5MGaSi3TqT</t>
+          <t>cuxQ2Vhc4K3HfPWjrj4feM</t>
         </is>
       </c>
       <c r="B87" s="2" t="n">
@@ -10164,7 +10164,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>457CdoJhiLDwsXBckn7QNc</t>
+          <t>9KNnFvC3bkHgbN9zLhC3gn</t>
         </is>
       </c>
       <c r="B88" s="2" t="n">
@@ -10275,7 +10275,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>E5gSHRpttVNPSQi3WUQcqb</t>
+          <t>BEd9gUWEo72oKaYwLGcpMq</t>
         </is>
       </c>
       <c r="B89" s="2" t="n">
@@ -10386,7 +10386,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>j5smBcM8HQG6vSmX33Um3u</t>
+          <t>G9uR3GLBTS4LTk9njGc9Pr</t>
         </is>
       </c>
       <c r="B90" s="2" t="n">
@@ -10497,7 +10497,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>E3RrSH6Wx4ePyZvprQXL7B</t>
+          <t>RFm3NW3L52eZMcdMLwGUNM</t>
         </is>
       </c>
       <c r="B91" s="2" t="n">
@@ -10608,7 +10608,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>dHQuKwNJ2GjG2ZXbtuBTmZ</t>
+          <t>ay66PhsKxjYT6nWNYzM4Hu</t>
         </is>
       </c>
       <c r="B92" s="2" t="n">
@@ -10719,7 +10719,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>7MjZmNwsdWrQNn6aYRhxoS</t>
+          <t>N8mTQ8xbAHDJPkbfENGR5E</t>
         </is>
       </c>
       <c r="B93" s="2" t="n">
@@ -10830,7 +10830,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>FzUGC4sSa352pCzoqLQgaE</t>
+          <t>JszyGR5xeMNQ2g2oSPk6Q2</t>
         </is>
       </c>
       <c r="B94" s="2" t="n">
@@ -10941,7 +10941,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>NDedVdWKK38e2WR9kJ6zjz</t>
+          <t>FNhHTS6FaNQLqcXaUjXxQ3</t>
         </is>
       </c>
       <c r="B95" s="2" t="n">
@@ -11052,7 +11052,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MiZLphLmjqknW6rj8FnbRo</t>
+          <t>8yCKNUBcXXJBmMKgYioSbP</t>
         </is>
       </c>
       <c r="B96" s="2" t="n">
@@ -11163,7 +11163,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>4DQa6mJaiRREkUKroRuewf</t>
+          <t>4cWM5ucBfFHE2NFeY3kqHL</t>
         </is>
       </c>
       <c r="B97" s="2" t="n">
@@ -11274,7 +11274,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>LZqq2FKahqZscPMNevTHxR</t>
+          <t>AtVfPigrKpjVaWtD6BARQ3</t>
         </is>
       </c>
       <c r="B98" s="2" t="n">
@@ -11385,7 +11385,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>AAgYzfRFmr84m6kZZTYpS2</t>
+          <t>DyuPhLzUH35tntFy3zGMwa</t>
         </is>
       </c>
       <c r="B99" s="2" t="n">
@@ -11496,7 +11496,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>9Yv9GjkYMosc5cLdaQ2KJk</t>
+          <t>nD2YGnR37VG9PSPJMLyRB3</t>
         </is>
       </c>
       <c r="B100" s="2" t="n">
@@ -11607,7 +11607,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>38vG6rxkPBTVniR5DjzHhm</t>
+          <t>Vc2xhNN57ZiJgEZKorNws8</t>
         </is>
       </c>
       <c r="B101" s="2" t="n">
@@ -11718,7 +11718,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>EwxtbAhKrA5v7XQf78c8dB</t>
+          <t>akRaemh3uvxnz5ZVcH8PLJ</t>
         </is>
       </c>
       <c r="B102" s="2" t="n">
@@ -11829,7 +11829,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>jHCCUcqWrJ7shFyJUTZNLH</t>
+          <t>9GnXY2Gxdi5noApjF59DNj</t>
         </is>
       </c>
       <c r="B103" s="2" t="n">
@@ -11940,7 +11940,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>LCzaWmHhNZdj93UrSPvEfD</t>
+          <t>i8yfkvDkBjXqWjgRCnsA2B</t>
         </is>
       </c>
       <c r="B104" s="2" t="n">
@@ -12051,7 +12051,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>JfpgRkyMNWVXsGYiPbmqhv</t>
+          <t>iYSFU3VcPeYELQHrG6ay7L</t>
         </is>
       </c>
       <c r="B105" s="2" t="n">
@@ -12162,7 +12162,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RKfiQ4gURhUhqYfHbEysqK</t>
+          <t>X5PjNPUFhA2AV9Xcci8prK</t>
         </is>
       </c>
       <c r="B106" s="2" t="n">
@@ -12273,7 +12273,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ToCfGbVrMt2DMBMpL3bPbL</t>
+          <t>C9YxxfiWTQqThy7vpshFTd</t>
         </is>
       </c>
       <c r="B107" s="2" t="n">
@@ -12384,7 +12384,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>YKKqKUQMDJcn43RnvGiQQt</t>
+          <t>nDutsscwoBANcFca7duMsn</t>
         </is>
       </c>
       <c r="B108" s="2" t="n">
@@ -12495,7 +12495,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CxVibsyU3EC5Ba8zKNb7ww</t>
+          <t>22mk4EsE9LLDiQKaXu6aAh</t>
         </is>
       </c>
       <c r="B109" s="2" t="n">
@@ -12606,7 +12606,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>iXToPEsr2973WBso95jP8A</t>
+          <t>iNRhFBfAw9mfBmWLdDvQSb</t>
         </is>
       </c>
       <c r="B110" s="2" t="n">
@@ -12717,7 +12717,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HQwZfPhA8kdhmTP7MnS8kJ</t>
+          <t>iPd5CSxwyWTF7Q9iuWDW7M</t>
         </is>
       </c>
       <c r="B111" s="2" t="n">
@@ -12828,7 +12828,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sydbp2UysWdgm7Tmo4s4op</t>
+          <t>AncMx8V2aHHnfi48ds9wb8</t>
         </is>
       </c>
       <c r="B112" s="2" t="n">
@@ -12939,7 +12939,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ZEjAWpZKinuGWsr8pJP2S8</t>
+          <t>oDDwCzzzDfNiFNjZtUQCFo</t>
         </is>
       </c>
       <c r="B113" s="2" t="n">
@@ -13050,7 +13050,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SeudRWrqpWr3jTXByJAEcV</t>
+          <t>JA3HPvWpJJvmqdhVVDYujn</t>
         </is>
       </c>
       <c r="B114" s="2" t="n">
@@ -13161,7 +13161,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>NQV4A8yR9dowAF5qvdjiZa</t>
+          <t>PmS8zPJcaTGdvwATxgjbYH</t>
         </is>
       </c>
       <c r="B115" s="2" t="n">
@@ -13272,7 +13272,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>GMyF3FiG6bgPUxWVrQ4Z4r</t>
+          <t>Q4JKpVor6t5F9LmU5RVtyy</t>
         </is>
       </c>
       <c r="B116" s="2" t="n">
@@ -13383,7 +13383,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2EfiohVa7Fcz7vXwegDhKJ</t>
+          <t>i3HRYT774qpWp2zdSBZTEz</t>
         </is>
       </c>
       <c r="B117" s="2" t="n">
@@ -13494,7 +13494,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>8i6nt2h9kzsY7m4D954DeJ</t>
+          <t>MAMWTxjpyVyov3FDpD98h2</t>
         </is>
       </c>
       <c r="B118" s="2" t="n">
@@ -13605,7 +13605,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>DfwTM9hZa6AykBGypZp4s8</t>
+          <t>VM6TQMKGJ4bhbf7q3szU2V</t>
         </is>
       </c>
       <c r="B119" s="2" t="n">
@@ -13716,7 +13716,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>8weWBrASLXfibQ97pnbSfX</t>
+          <t>QiV6EJP33Pt2HGkZy4ACXP</t>
         </is>
       </c>
       <c r="B120" s="2" t="n">
@@ -13827,7 +13827,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>3PmtZJ4UtZSHBLUafAAVQn</t>
+          <t>VdFG7uXoBGksp2MGaUTRGp</t>
         </is>
       </c>
       <c r="B121" s="2" t="n">
@@ -13938,7 +13938,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>GjLxdTwhaYNQEEhmqyK45o</t>
+          <t>3iZeiHy2HcFkXycwpgJi93</t>
         </is>
       </c>
       <c r="B122" s="2" t="n">
@@ -14049,7 +14049,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Mv9EKRkSBt5cyQvvfKe7Lu</t>
+          <t>kxVkevj79UyEAPonFztpfJ</t>
         </is>
       </c>
       <c r="B123" s="2" t="n">
@@ -14160,7 +14160,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>LUA2MCJVDpj3V4b2Bq7i86</t>
+          <t>jrmQ28puvk4P2gkiprG36h</t>
         </is>
       </c>
       <c r="B124" s="2" t="n">
@@ -14271,7 +14271,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>JpWrXyrunRhiyNGiZkUPSs</t>
+          <t>NPDgJ3h9kYC2Lj2zCYvdwq</t>
         </is>
       </c>
       <c r="B125" s="2" t="n">
@@ -14382,7 +14382,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>NF6QnU9azmBao67PSWVur5</t>
+          <t>Z2Yey4wAyzhdnepfFbzCR5</t>
         </is>
       </c>
       <c r="B126" s="2" t="n">
@@ -14493,7 +14493,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>dc3e3C3drTYymGPZKZixRP</t>
+          <t>M4xMjRuJgB8xksSu5qhf5i</t>
         </is>
       </c>
       <c r="B127" s="2" t="n">
@@ -14604,7 +14604,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>duui4MUfUR89rkYVwW6NYn</t>
+          <t>Snm46UZwZe3xRykbYBmgVe</t>
         </is>
       </c>
       <c r="B128" s="2" t="n">
@@ -14715,7 +14715,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Cmv9Ggw8TLawg9RvsEVuEC</t>
+          <t>7zw4nhGJzE59QC8y7hCtrX</t>
         </is>
       </c>
       <c r="B129" s="2" t="n">
@@ -14826,7 +14826,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CKjjKpusiFU8JCKBoMe3us</t>
+          <t>aTf9vcreq5rwLfVB5dkhuk</t>
         </is>
       </c>
       <c r="B130" s="2" t="n">
@@ -14937,7 +14937,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A8vcmGfsE8ZYfeqM5ME7ap</t>
+          <t>LXUfhattKUR2oy9ke6g3To</t>
         </is>
       </c>
       <c r="B131" s="2" t="n">
@@ -15048,7 +15048,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>TpbnKCj5Xapts8PZXcBoet</t>
+          <t>VN7bBFsGfCxB3CYrdKyRYm</t>
         </is>
       </c>
       <c r="B132" s="2" t="n">
@@ -15159,7 +15159,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>NZMLnCWN69XdLVHhzbh5kG</t>
+          <t>jooPLiobTQdD9LmW9F9eiV</t>
         </is>
       </c>
       <c r="B133" s="2" t="n">
@@ -15270,7 +15270,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>3deAJrWoCvNsuS3rmQWLyj</t>
+          <t>hsPwCZqnGBJfTZTJUuTXos</t>
         </is>
       </c>
       <c r="B134" s="2" t="n">
@@ -15381,7 +15381,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CBb9X98yex8DPpx2BkkGVx</t>
+          <t>6q4wBMeoiMEi3txt2RHaZK</t>
         </is>
       </c>
       <c r="B135" s="2" t="n">
@@ -15492,7 +15492,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>79xk6B7eFEgTBZcHJirWuL</t>
+          <t>5YPXJ2Dr6FqNX2MznpDjfd</t>
         </is>
       </c>
       <c r="B136" s="2" t="n">
@@ -15603,7 +15603,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>8zi9AEvFqc8CeNKXMzjSkb</t>
+          <t>EAciQqMEZbYzANTqbZkx4Z</t>
         </is>
       </c>
       <c r="B137" s="2" t="n">
@@ -15714,7 +15714,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>GJMrgUk3SCzKBnh3yh5aJp</t>
+          <t>U5fABwyu9uBbXkhEp6vP5e</t>
         </is>
       </c>
       <c r="B138" s="2" t="n">
@@ -15825,7 +15825,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>cQMx2P9LHzhUVMCuCrNQ7P</t>
+          <t>h67zPtnLox4jirskFEmBM3</t>
         </is>
       </c>
       <c r="B139" s="2" t="n">
@@ -15936,7 +15936,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>B2XukLWUKD5NtuFCvckxGK</t>
+          <t>T4xjQy3tWHALV59izWUvtt</t>
         </is>
       </c>
       <c r="B140" s="2" t="n">
@@ -16047,7 +16047,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>NuddwJR8gfQbuX2Ao2zwty</t>
+          <t>YkAjeWqmMWvvp9KAHCkuEv</t>
         </is>
       </c>
       <c r="B141" s="2" t="n">
@@ -16158,7 +16158,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>E4uLmcrephrhXH4QqN4ac8</t>
+          <t>hdrvXjqTcQD5PVeXk9N3kC</t>
         </is>
       </c>
       <c r="B142" s="2" t="n">
@@ -16269,7 +16269,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>iMorrA64ke48mtyrioj9hh</t>
+          <t>m466tP2r4oZyuszaPFfTzU</t>
         </is>
       </c>
       <c r="B143" s="2" t="n">
@@ -16380,7 +16380,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>WFSTF28hhwSQ4B3hJ3HfXz</t>
+          <t>49xzvXvgFMtG6dmCZioxY7</t>
         </is>
       </c>
       <c r="B144" s="2" t="n">
@@ -16491,7 +16491,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>7df655ryJvqKaV8YXAFUJ3</t>
+          <t>GnGYdtmT5arv4fwPGKyKhX</t>
         </is>
       </c>
       <c r="B145" s="2" t="n">
@@ -16602,7 +16602,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>3zSJyakTqwb3ySv6bG6qEc</t>
+          <t>N34UVAViE3pH8diPxNzjca</t>
         </is>
       </c>
       <c r="B146" s="2" t="n">
@@ -16713,7 +16713,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>HTJjdq8tVNcLmCBTQWE97M</t>
+          <t>o6rAnicCcXXd9YSbKc444e</t>
         </is>
       </c>
       <c r="B147" s="2" t="n">
@@ -16824,7 +16824,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>g8rF3nop75EZKriMNmHBLh</t>
+          <t>RUDCqju3KLPajh5fVLYZDB</t>
         </is>
       </c>
       <c r="B148" s="2" t="n">
@@ -16935,7 +16935,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Fy9P97ekeWVLBCovYDwRRz</t>
+          <t>atkztwMRt9ohA39qVo4qZM</t>
         </is>
       </c>
       <c r="B149" s="2" t="n">
@@ -17046,7 +17046,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>8oqXNTqyHZbdWyphoga3NG</t>
+          <t>Qokc4SRKWSnR4rmJJSvjZh</t>
         </is>
       </c>
       <c r="B150" s="2" t="n">
@@ -17157,7 +17157,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>D2mhV3iPSs4AKR64VfxtFv</t>
+          <t>C9hB7eogohJynCzDCnkuWi</t>
         </is>
       </c>
       <c r="B151" s="2" t="n">
@@ -17268,7 +17268,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Njp4PyAPD8AGzXAcB44ydg</t>
+          <t>CuYyVvvK2JT27VPGWNdWLZ</t>
         </is>
       </c>
       <c r="B152" s="2" t="n">
@@ -17379,7 +17379,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>HzEtuNAgTK4WbiKSzuwAKW</t>
+          <t>38MWk3MvuZBZXM548RM6X7</t>
         </is>
       </c>
       <c r="B153" s="2" t="n">
@@ -17490,7 +17490,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>nBdrmyackfAwZqYpKs9Wh8</t>
+          <t>9bqVGnM2ZBhxjWDD5ZtHMh</t>
         </is>
       </c>
       <c r="B154" s="2" t="n">
@@ -17601,7 +17601,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>9dWvUa3uE5XQGR7JEbKq4U</t>
+          <t>4nuM4pfsk7tdgDUWkdLWEe</t>
         </is>
       </c>
       <c r="B155" s="2" t="n">
@@ -17712,7 +17712,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>JGjsHWjy7fy9ybnhEYweV9</t>
+          <t>in9xYkBA4evwcRXEEdqNSJ</t>
         </is>
       </c>
       <c r="B156" s="2" t="n">
@@ -17823,7 +17823,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>eTYjFAdP5zdwvvWBR76vR7</t>
+          <t>NgNyfNdHXrXb2GQKrEwDrA</t>
         </is>
       </c>
       <c r="B157" s="2" t="n">
@@ -17934,7 +17934,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>5H6XviifSfiKA378SDgJpc</t>
+          <t>mEHQ78ivgq4iRxJJsCyfse</t>
         </is>
       </c>
       <c r="B158" s="2" t="n">
@@ -18045,7 +18045,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Pgw3pY6u8WjU57DravpZPh</t>
+          <t>VZKJ6VKSq2kViV7PUV8KUS</t>
         </is>
       </c>
       <c r="B159" s="2" t="n">
@@ -18156,7 +18156,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Zy4rVtXnhSvvKhteHTiRFM</t>
+          <t>NnHPCZTm3Jjb6sDVTX7LMU</t>
         </is>
       </c>
       <c r="B160" s="2" t="n">
@@ -18267,7 +18267,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>NuipSSxtWxNvTryxiTv4xB</t>
+          <t>AHvctza7iETketHRyGNzA7</t>
         </is>
       </c>
       <c r="B161" s="2" t="n">
@@ -18378,7 +18378,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Fs5bGe3SeyPhaFszsQ4NAm</t>
+          <t>MGyrvDpRA97ZqYowzZwwGt</t>
         </is>
       </c>
       <c r="B162" s="2" t="n">
@@ -18489,7 +18489,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>3W8vKEwaFzk8iKh8uGHFdP</t>
+          <t>jPfVpN76JNptYQrkGKrUow</t>
         </is>
       </c>
       <c r="B163" s="2" t="n">
@@ -18600,7 +18600,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>LzS4zPMFFq6VssQKKR6FFs</t>
+          <t>7cSdjNED7Aju5H7b96wXW6</t>
         </is>
       </c>
       <c r="B164" s="2" t="n">
@@ -18711,7 +18711,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MjUNZN3khGLWuB2szSYuRs</t>
+          <t>b5SxkBy3RrwWSeoRc3FapY</t>
         </is>
       </c>
       <c r="B165" s="2" t="n">
@@ -18822,7 +18822,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>LgiB4cZ7UqhULojHJfcJYe</t>
+          <t>E3znYphuTksMeEyhLbEugN</t>
         </is>
       </c>
       <c r="B166" s="2" t="n">
@@ -18933,7 +18933,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Xf2zQezrkfzxv3tUgw4W7U</t>
+          <t>9JSAFniv2KEK7Ero9jeiv4</t>
         </is>
       </c>
       <c r="B167" s="2" t="n">
@@ -19044,7 +19044,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>GohPD5vv3oSov3oTNC4saW</t>
+          <t>NtXtYGCiUzdgp8q6SGNTeW</t>
         </is>
       </c>
       <c r="B168" s="2" t="n">
@@ -19155,7 +19155,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>UyfxVchzz8tX2SxfhApyxS</t>
+          <t>JQsWjgCFFqH3Yv5NzfFxaB</t>
         </is>
       </c>
       <c r="B169" s="2" t="n">
@@ -19266,7 +19266,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>GKXAurMgk7omckiRFNttdL</t>
+          <t>beJDVrHyzULuw8wXn9C5vo</t>
         </is>
       </c>
       <c r="B170" s="2" t="n">
@@ -19377,7 +19377,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>f7xh2m55tRSitfVcQfEXLo</t>
+          <t>cuPUNdYpYeyLS57maN4oN8</t>
         </is>
       </c>
       <c r="B171" s="2" t="n">
@@ -19488,7 +19488,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>hWHAERHkV28jt7sszeFKFM</t>
+          <t>jFjFW8TumXPW8pEU88hRZs</t>
         </is>
       </c>
       <c r="B172" s="2" t="n">
@@ -19599,7 +19599,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Cc6d5RhEsPNo3TfbUJiXpL</t>
+          <t>WcPZRr885XYtRgMDKhzLkw</t>
         </is>
       </c>
       <c r="B173" s="2" t="n">
@@ -19710,7 +19710,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Wgqeu563UniGwGhQYp5R9H</t>
+          <t>YAP5zdoCZp3hMJy6z52wVi</t>
         </is>
       </c>
       <c r="B174" s="2" t="n">
@@ -19821,7 +19821,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>48uD4tMXPvCxRDrFTDdEkf</t>
+          <t>S8nvgHknQsdk4pxkW8epmo</t>
         </is>
       </c>
       <c r="B175" s="2" t="n">
@@ -19932,7 +19932,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>EMPNpqSyDhmAHWCHjnERoH</t>
+          <t>Zi6xUt4U7xf5dAu9Mktdcc</t>
         </is>
       </c>
       <c r="B176" s="2" t="n">
@@ -20043,7 +20043,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SEwxE5YFEZJ6iCJY2jBcAE</t>
+          <t>FM4JASsWgkuH2i6FdnGbeK</t>
         </is>
       </c>
       <c r="B177" s="2" t="n">
@@ -20154,7 +20154,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Zomx447F8ckEh7LSF8rpXq</t>
+          <t>bGzkW3E6jtUejK4ryRnb3p</t>
         </is>
       </c>
       <c r="B178" s="2" t="n">
@@ -20265,7 +20265,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ZQcxvjoVfsw43aEhLQDJZ7</t>
+          <t>GmQAu5K8fCx3wFmnvWS8jm</t>
         </is>
       </c>
       <c r="B179" s="2" t="n">
@@ -20376,7 +20376,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ijouv3nfK8Xqx6aKuJzu3E</t>
+          <t>mEv7EPeczNU67UChyNYejw</t>
         </is>
       </c>
       <c r="B180" s="2" t="n">
@@ -20487,7 +20487,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>7Uia9SE6YudaYbNH2gHvP9</t>
+          <t>AoDwmrwTP2BtytdMQzvQwK</t>
         </is>
       </c>
       <c r="B181" s="2" t="n">
@@ -20598,7 +20598,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>mxnqLRGrRVY2fCGb8auL7J</t>
+          <t>DQHJrE5bYjftWwF8nps2MC</t>
         </is>
       </c>
       <c r="B182" s="2" t="n">
@@ -20709,7 +20709,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>V7zoiLYQKSiQNUhtDL26ys</t>
+          <t>ffeifcZgdxPmA79d9qXJii</t>
         </is>
       </c>
       <c r="B183" s="2" t="n">
@@ -20820,7 +20820,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>JPDagcEvvXeESN9YFdvTDv</t>
+          <t>XhuRdUPhUBvLxEHGukvmSv</t>
         </is>
       </c>
       <c r="B184" s="2" t="n">
@@ -20931,7 +20931,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Xin7aK8wY6Vk3CXgjXF5Fv</t>
+          <t>ni6PP3wZRkHcyjqDGoXWYJ</t>
         </is>
       </c>
       <c r="B185" s="2" t="n">
@@ -21042,7 +21042,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>6PZFQVb4mpnDBTdfjmaZ2N</t>
+          <t>ewwpT4AMJpuAtTwuRQxgwH</t>
         </is>
       </c>
       <c r="B186" s="2" t="n">
@@ -21153,7 +21153,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>EERD5aWceFPPWmVwk2qJ7s</t>
+          <t>AtPC76UgwLEt58gavLCB8k</t>
         </is>
       </c>
       <c r="B187" s="2" t="n">
@@ -21264,7 +21264,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ZFFQYhfHW58di26dS9MUDo</t>
+          <t>VuyR6egXni4dpnowavHpwA</t>
         </is>
       </c>
       <c r="B188" s="2" t="n">
@@ -21375,7 +21375,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>HzfWgwSe5s3DLwTiZwJoLL</t>
+          <t>82HnejR4K9AdLpiEeTyDZo</t>
         </is>
       </c>
       <c r="B189" s="2" t="n">
@@ -21486,7 +21486,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>bTaJYo9o2P7fHopG4QqmYS</t>
+          <t>Ve2uei833D4abemGCaK3SS</t>
         </is>
       </c>
       <c r="B190" s="2" t="n">
@@ -21597,7 +21597,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>U8cZX7dgnvMYedVTQTjTHS</t>
+          <t>KnHLx6DyZgurQcY4WpaUp3</t>
         </is>
       </c>
       <c r="B191" s="2" t="n">
@@ -21708,7 +21708,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>4MHmv4J6YkXirgJdGuUy4q</t>
+          <t>5Mb7SwJKzBp9M5n9RBm6gh</t>
         </is>
       </c>
       <c r="B192" s="2" t="n">
@@ -21819,7 +21819,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>DFYY7qZDqnt9KfwkxZQBfm</t>
+          <t>XjQ28CsFZTL2v4M854Mqrv</t>
         </is>
       </c>
       <c r="B193" s="2" t="n">
@@ -21930,7 +21930,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>bLNsC5ssdA4p7H7agQNr8Z</t>
+          <t>bAoVvrAxT9dgmqED8jFrxE</t>
         </is>
       </c>
       <c r="B194" s="2" t="n">
@@ -22041,7 +22041,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>R87r7fWgaqPBT642nsxqd9</t>
+          <t>mXTTZ6ytzpSDo8nmMvCqJf</t>
         </is>
       </c>
       <c r="B195" s="2" t="n">
@@ -22152,7 +22152,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>8rvcghRE5Tq3pDAJXTor6S</t>
+          <t>n3BYu3d2by6pSUQEVdnnuA</t>
         </is>
       </c>
       <c r="B196" s="2" t="n">
@@ -22263,7 +22263,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>kXbv5DsLtoAc3enkFTPNoq</t>
+          <t>XQtofcC5JgtC6DZDCS8JA8</t>
         </is>
       </c>
       <c r="B197" s="2" t="n">
@@ -22374,7 +22374,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>a6p3crnYMuTEYDNGrBx8Fa</t>
+          <t>iFbuppS3YAU2q2LficFZxk</t>
         </is>
       </c>
       <c r="B198" s="2" t="n">
@@ -22485,7 +22485,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>B6LAyZ3QpeUWbAGYPcVy7S</t>
+          <t>LRcZ2bRb59vtTUKiNsDdqp</t>
         </is>
       </c>
       <c r="B199" s="2" t="n">
@@ -22596,7 +22596,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>noJnHw8tktc3xYggpkoXYk</t>
+          <t>fKA7yeQPxhN2bvsKMRuwKW</t>
         </is>
       </c>
       <c r="B200" s="2" t="n">
@@ -22707,7 +22707,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ZgmTqv9CryULTveiViU3DQ</t>
+          <t>HYYMj6b7bB3SeUkrfFaA7s</t>
         </is>
       </c>
       <c r="B201" s="2" t="n">
@@ -22818,7 +22818,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>79v6ppRp2sDwJ8AYFH9AV7</t>
+          <t>B2akoQehMjAYeR2JG52V4n</t>
         </is>
       </c>
       <c r="B202" s="2" t="n">
@@ -22929,7 +22929,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>KWDPkH7oG4upGnHFNfZd7w</t>
+          <t>2pT5be2yxpVRBvz8tCko62</t>
         </is>
       </c>
       <c r="B203" s="2" t="n">
@@ -23040,7 +23040,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>TLpRWy4GjJWa7ib6zwkZ7m</t>
+          <t>f4A6dy9Zdt5vqqB3qJdshk</t>
         </is>
       </c>
       <c r="B204" s="2" t="n">
@@ -23151,7 +23151,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ZHkK3vM22JFBKkhm6kP6uw</t>
+          <t>Ns8N2hxEfzcQDmChHppego</t>
         </is>
       </c>
       <c r="B205" s="2" t="n">
@@ -23262,7 +23262,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>oDQtDhr5GZgaLTDSa5LKcF</t>
+          <t>NpdVJE4JtjZDnWQ8HmJmoy</t>
         </is>
       </c>
       <c r="B206" s="2" t="n">
@@ -23373,7 +23373,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>J7CiSv9nhxEp2RgddzXLV5</t>
+          <t>KxhCb9SYkL6HTVhLkzaMgA</t>
         </is>
       </c>
       <c r="B207" s="2" t="n">
@@ -23484,7 +23484,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>hqU58MTSAF7pPUkGfFPzUg</t>
+          <t>Vgc9purEuEbSYgG2GUbJHs</t>
         </is>
       </c>
       <c r="B208" s="2" t="n">
@@ -23595,7 +23595,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>FqPXEo8GLvnjvCpAVVPuSF</t>
+          <t>C2rY445SwLo5xY5HWGWDMS</t>
         </is>
       </c>
       <c r="B209" s="2" t="n">
@@ -23706,7 +23706,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>NGy867CYPETJG4Kags5Nxa</t>
+          <t>WU97NPGFVjAXcsDsa8xh3n</t>
         </is>
       </c>
       <c r="B210" s="2" t="n">
@@ -23817,7 +23817,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>MZxnkX5PnF9rhDNJY6RYfA</t>
+          <t>R4LCjuiVnpf9JnamhP9Yq2</t>
         </is>
       </c>
       <c r="B211" s="2" t="n">
@@ -23928,7 +23928,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>3dX2toCSWNZ5wpUFxGp7JP</t>
+          <t>6mJzZWXcBQZ6zT24muS6kV</t>
         </is>
       </c>
       <c r="B212" s="2" t="n">
@@ -24039,7 +24039,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>7PXupzwPDigetLii7HJ8C6</t>
+          <t>63PpZm43fDb4BcdPm6KhjD</t>
         </is>
       </c>
       <c r="B213" s="2" t="n">
@@ -24150,7 +24150,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Y6SmqLSpLq5R3ChdnRpgz3</t>
+          <t>993CxCb6yTu3C3RSHpU9Be</t>
         </is>
       </c>
       <c r="B214" s="2" t="n">
@@ -24261,7 +24261,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>eiBjLULpGGXCsZ4TXmqmVs</t>
+          <t>UyNWfq8Ag3E3FdBhTPXK48</t>
         </is>
       </c>
       <c r="B215" s="2" t="n">
@@ -24372,7 +24372,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>TKerrwEihXWbU49E5NPpJo</t>
+          <t>RQaDnWyVLKpUcfBdQ5EbrY</t>
         </is>
       </c>
       <c r="B216" s="2" t="n">
@@ -24483,7 +24483,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>iHywmum7KkRGgXEKyJqCmc</t>
+          <t>i2yakmfUQVvZxu2YPE3fwF</t>
         </is>
       </c>
       <c r="B217" s="2" t="n">
@@ -24594,7 +24594,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>JhPoBBbFKjcQmhhrpaad4y</t>
+          <t>hCsVxsnKK9XQG8EMQmax9o</t>
         </is>
       </c>
       <c r="B218" s="2" t="n">
@@ -24705,7 +24705,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>6AGowkgqDhNzojb9mBK5bz</t>
+          <t>PztgZY6bKQxjDLHzQtKxz4</t>
         </is>
       </c>
       <c r="B219" s="2" t="n">
@@ -24816,7 +24816,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>UUMkvQkskxq74W55uBzxVo</t>
+          <t>eAwPqoBM5wGAXqUSCnKmMT</t>
         </is>
       </c>
       <c r="B220" s="2" t="n">
@@ -24927,7 +24927,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>eQ2WfeagkQYk7N2LL7o5DF</t>
+          <t>4VLrjY583cBiUBgSjC9s9d</t>
         </is>
       </c>
       <c r="B221" s="2" t="n">
@@ -25038,7 +25038,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>k6MnNysdBXjDXY3JxpsBo4</t>
+          <t>fHrZVHFtT3wQqHTEVnYM2T</t>
         </is>
       </c>
       <c r="B222" s="2" t="n">
@@ -25149,7 +25149,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>CY4ABX5d37jPFGsjKiqvUa</t>
+          <t>nijGjqbMyrDaqfj8nbLgE4</t>
         </is>
       </c>
       <c r="B223" s="2" t="n">
@@ -25260,7 +25260,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>WAMp4WE3dyig953akDBKVi</t>
+          <t>2faSsLbYTvhiRMyQDi6iMR</t>
         </is>
       </c>
       <c r="B224" s="2" t="n">
@@ -25371,7 +25371,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>kAxbowfAeouvDAzNw6owjK</t>
+          <t>AHYKYGJtMooiMEXBnogwZ5</t>
         </is>
       </c>
       <c r="B225" s="2" t="n">
@@ -25482,7 +25482,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>UrbHfrERJbnpMUAisw55GA</t>
+          <t>eioHSbwbTqp8jPSYhUhFPU</t>
         </is>
       </c>
       <c r="B226" s="2" t="n">
@@ -25593,7 +25593,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>jhLxYTZAP6ktJZg496e4wy</t>
+          <t>RWEsFJ7Le9EQQLbejzkqXP</t>
         </is>
       </c>
       <c r="B227" s="2" t="n">
@@ -25704,7 +25704,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>XPCGK3dC7uZMGdttnUB2Pk</t>
+          <t>hPN3WUrkQLypjPspVoviwA</t>
         </is>
       </c>
       <c r="B228" s="2" t="n">
@@ -25815,7 +25815,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>4n8wsNKpjpx7Rx6Q3a6PBP</t>
+          <t>MwfKP467DLi9gFb4uyokMs</t>
         </is>
       </c>
       <c r="B229" s="2" t="n">
@@ -25926,7 +25926,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>PUDvwgzVL5ZuooP8BGcDQA</t>
+          <t>HtgpfGnZsDKrncLfUFPM4s</t>
         </is>
       </c>
       <c r="B230" s="2" t="n">
@@ -26037,7 +26037,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>SkbTSGkxkoroEvpof6kfXZ</t>
+          <t>ef9RGawyXdpDzNriDy7zZj</t>
         </is>
       </c>
       <c r="B231" s="2" t="n">
@@ -26148,7 +26148,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>XRHU5QA5zdvpbTTdMYdhbN</t>
+          <t>gJAAiKHbPDHUPuEFEmxitp</t>
         </is>
       </c>
       <c r="B232" s="2" t="n">
@@ -26259,7 +26259,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>hHJC8Edvy7ptwP5Jncoky7</t>
+          <t>PhEcuPMZ7davShruXmXq7x</t>
         </is>
       </c>
       <c r="B233" s="2" t="n">
@@ -26370,7 +26370,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>CAsA69A7J7Sk9HGFwqoJP7</t>
+          <t>U6tm97Cagmr3e2ZwgT68oh</t>
         </is>
       </c>
       <c r="B234" s="2" t="n">
@@ -26481,7 +26481,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>KTiTYTxU4DRDnrHmKrhMWm</t>
+          <t>8ngD8xhaBQHcA4KSNw4JAH</t>
         </is>
       </c>
       <c r="B235" s="2" t="n">
@@ -26592,7 +26592,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>PdnrcQ3qqPEvLKXXMS5gXb</t>
+          <t>Ug9fyVm3PakmhagvEKr27h</t>
         </is>
       </c>
       <c r="B236" s="2" t="n">
@@ -26703,7 +26703,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>SyFmCCySt3RGr8FQKeQzfK</t>
+          <t>WPL2muwCoezoWmVPUfSAwU</t>
         </is>
       </c>
       <c r="B237" s="2" t="n">
@@ -26814,7 +26814,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>RJNCCpmnRp29seupiS9XdG</t>
+          <t>SzNr9z4u92TwVU8YdDUaTE</t>
         </is>
       </c>
       <c r="B238" s="2" t="n">
@@ -26925,7 +26925,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>htnRewZcF7SM7WfKcJVnBG</t>
+          <t>9YwT2gKWNoxqpPvqKkz5Mz</t>
         </is>
       </c>
       <c r="B239" s="2" t="n">
@@ -27036,7 +27036,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>PLWSfZBVj6qJ3HVDtiDDzm</t>
+          <t>dn93uaqr9zteMTVM7vUP2X</t>
         </is>
       </c>
       <c r="B240" s="2" t="n">
@@ -27147,7 +27147,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>hp2zxEwCwVtksskZLvTm2S</t>
+          <t>RahYMpvjj478SX3sVhStyx</t>
         </is>
       </c>
       <c r="B241" s="2" t="n">
@@ -27258,7 +27258,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>PY7TUh9oyTf3zV7DPwRP7T</t>
+          <t>McRnCkBwLVGgg6xhnHU2Fj</t>
         </is>
       </c>
       <c r="B242" s="2" t="n">
@@ -27369,7 +27369,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>JRVN7hfSFLgiD8MfBHa5QZ</t>
+          <t>DX9UkycuLiHYjkqXDfp8dN</t>
         </is>
       </c>
       <c r="B243" s="2" t="n">
@@ -27480,7 +27480,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>EFXg258BgE2kDzvUuUtgDu</t>
+          <t>WXx3kwD2SKy5YNxZscKXsi</t>
         </is>
       </c>
       <c r="B244" s="2" t="n">
@@ -27591,7 +27591,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2pJZXteBjtWHqhMUEi55ed</t>
+          <t>PcrDDPVkqLvdyxauJvgFNz</t>
         </is>
       </c>
       <c r="B245" s="2" t="n">
@@ -27702,7 +27702,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>3SpQAY9hWh8YcnGEppYLY2</t>
+          <t>UJ7ZeCcnTnt35fgGB8LVjz</t>
         </is>
       </c>
       <c r="B246" s="2" t="n">
@@ -27813,7 +27813,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>8MqqGeHMeQk4D2NDpFZp7o</t>
+          <t>YwUccoN5gUJBfVo3HNnHPj</t>
         </is>
       </c>
       <c r="B247" s="2" t="n">
@@ -27924,7 +27924,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>doz7HHJYTEMxQ9e7qvFNh8</t>
+          <t>NqTAUof8MjeAtXiW9DAok9</t>
         </is>
       </c>
       <c r="B248" s="2" t="n">
@@ -28035,7 +28035,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>HZw67KHZhJv4WTLb32X7Th</t>
+          <t>kvGT3Rwb8qzqeWicnvGQqY</t>
         </is>
       </c>
       <c r="B249" s="2" t="n">
@@ -28146,7 +28146,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>msbjvMigmB6Pi47EuQQgng</t>
+          <t>ktQC6xttaavjYiiuvNKXzZ</t>
         </is>
       </c>
       <c r="B250" s="2" t="n">
@@ -28257,7 +28257,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>cJLYUSbJRDFCcKPGH7u8CB</t>
+          <t>dvGzJJeQav9jbVuYxddiaM</t>
         </is>
       </c>
       <c r="B251" s="2" t="n">
@@ -28368,7 +28368,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>PRDZkgqcdHpucmNmkYfE7b</t>
+          <t>RoTpdMinH3JvyD5nZznmKW</t>
         </is>
       </c>
       <c r="B252" s="2" t="n">
@@ -28479,7 +28479,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>bdGKgSfnFR8FtF8y5Y2vwm</t>
+          <t>CsBLGpWicpaHN8J6FmjKde</t>
         </is>
       </c>
       <c r="B253" s="2" t="n">
@@ -28590,7 +28590,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>32yton2mrT73cCYWj2zpyf</t>
+          <t>JVYbH8uPFknj53gATRpE4K</t>
         </is>
       </c>
       <c r="B254" s="2" t="n">
@@ -28701,7 +28701,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>LHZvXzwfN9rLXKEUZwhrDN</t>
+          <t>LunKwHaLzsUdLaiCvRycwg</t>
         </is>
       </c>
       <c r="B255" s="2" t="n">
@@ -28812,7 +28812,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>hmFxPHR9XnvQUf79uQ4ivT</t>
+          <t>eG73vn8ZM5ZWSduLjNYwZK</t>
         </is>
       </c>
       <c r="B256" s="2" t="n">
@@ -28923,7 +28923,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>7yYYMyfzjvxK7u5vkrFY3Y</t>
+          <t>d3ybSyVEsx8SkawJa3ntJD</t>
         </is>
       </c>
       <c r="B257" s="2" t="n">
@@ -29034,7 +29034,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Emddcf9mi7p42wzcSXmt6T</t>
+          <t>77VuBsxcWTCf2cjkZh4Xp2</t>
         </is>
       </c>
       <c r="B258" s="2" t="n">
@@ -29145,7 +29145,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>UhpK2PND4iywvhxM2bieTq</t>
+          <t>RTwQFPzZaMuznap62PHBjT</t>
         </is>
       </c>
       <c r="B259" s="2" t="n">
@@ -29256,7 +29256,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>V6qykQAcsEZXp9pJHUurGz</t>
+          <t>TCSM4B3ZRcvEyrXDTx2fzw</t>
         </is>
       </c>
       <c r="B260" s="2" t="n">
@@ -29367,7 +29367,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>4SvSe6eGW3UoV5s4hLqvBJ</t>
+          <t>CHdrzahrdiwuJAeWd22s34</t>
         </is>
       </c>
       <c r="B261" s="2" t="n">
@@ -29478,7 +29478,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>azKvb7Vhg7jgSt5bKWi4s3</t>
+          <t>MvNZtJFqQKQnKELK45T5VN</t>
         </is>
       </c>
       <c r="B262" s="2" t="n">
@@ -29589,7 +29589,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>FZp6C4ytC4aq28jpri4Q46</t>
+          <t>myQCerKuJhp9dzdnA7RkgG</t>
         </is>
       </c>
       <c r="B263" s="2" t="n">
@@ -29700,7 +29700,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>NqbfSYtNCnsMpS2sa39hfK</t>
+          <t>4Mbo7RRahXafLJNqnKoR5Y</t>
         </is>
       </c>
       <c r="B264" s="2" t="n">
@@ -29811,7 +29811,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>e7dNXLpgrBsGEb39dwuVcR</t>
+          <t>gg8sipvrs2aoYTGFTJwtJf</t>
         </is>
       </c>
       <c r="B265" s="2" t="n">
@@ -29922,7 +29922,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>32JeTnMoJ2eVy5KLjBRCmD</t>
+          <t>JLT66ndDxQLeCv9cVdTxJm</t>
         </is>
       </c>
       <c r="B266" s="2" t="n">
@@ -30033,7 +30033,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>J4z7ybqsqA8vpkij5xC5UY</t>
+          <t>5JNZS8CmqhpjW5nTGjUWNe</t>
         </is>
       </c>
       <c r="B267" s="2" t="n">
@@ -30144,7 +30144,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>F8SWcSbP37UFfwinzdTGzq</t>
+          <t>8HXtYaDzyQgcdcTSCeFET9</t>
         </is>
       </c>
       <c r="B268" s="2" t="n">
@@ -30255,7 +30255,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>BHZsNymcKPCPaCoaGsbMX3</t>
+          <t>LFpHB3fYvFB5Q7owcmxZTc</t>
         </is>
       </c>
       <c r="B269" s="2" t="n">
@@ -30366,7 +30366,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>kqhnqzZrCSp9ZYNgMfQ4dh</t>
+          <t>2ZiYVm9hVk63gmCBaHimYX</t>
         </is>
       </c>
       <c r="B270" s="2" t="n">
@@ -30477,7 +30477,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>N2Lzm3x3n7FRjUsaNLBGp4</t>
+          <t>K7haCg2pvvcHV9YiSPXMUG</t>
         </is>
       </c>
       <c r="B271" s="2" t="n">
@@ -30588,7 +30588,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>BttMFRbwES9KiAu3eQoMpt</t>
+          <t>DuefXgv3gX4RNcge29Xq2u</t>
         </is>
       </c>
       <c r="B272" s="2" t="n">
@@ -30699,7 +30699,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>LF4ggPC6u29Z6y4bQAnYZ2</t>
+          <t>A5if2bgqv2mGE3ayU5RKJU</t>
         </is>
       </c>
       <c r="B273" s="2" t="n">
@@ -30810,7 +30810,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>EsyvRcBZJLgR22Q2npLtZa</t>
+          <t>dfWg9imETYHFayqFVhEbt7</t>
         </is>
       </c>
       <c r="B274" s="2" t="n">
@@ -30921,7 +30921,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>8bqw6WeNPkT9EpuAPL7dwB</t>
+          <t>AUsb7BgFvzuw9DrA9CN66b</t>
         </is>
       </c>
       <c r="B275" s="2" t="n">
@@ -31032,7 +31032,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>faGFvdBzzxbqqvSgwKYuvS</t>
+          <t>XZJFEvnSGXDZVgnLfi6XzL</t>
         </is>
       </c>
       <c r="B276" s="2" t="n">
@@ -31143,7 +31143,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>LNaFeNiqPA5sfvQm6T4kEJ</t>
+          <t>SqZhHD7vi9uqvdbLr9psFH</t>
         </is>
       </c>
       <c r="B277" s="2" t="n">
@@ -31254,7 +31254,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Jeajdv9eDCTzR3Cbpmm9BG</t>
+          <t>JhLNUcdYzCyttwoKGbpeCh</t>
         </is>
       </c>
       <c r="B278" s="2" t="n">
@@ -31365,7 +31365,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>HL5CaTedBoEkN97m9ZnPuo</t>
+          <t>CkFT4D4Zo79b3WrrAXaxaR</t>
         </is>
       </c>
       <c r="B279" s="2" t="n">
@@ -31476,7 +31476,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>8sN8pMzrM2rEfcN79agWna</t>
+          <t>MYCfHtBPrSTBEhhrnvGRRm</t>
         </is>
       </c>
       <c r="B280" s="2" t="n">
